--- a/biology/Histoire de la zoologie et de la botanique/Hermann_Wendland/Hermann_Wendland.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hermann_Wendland/Hermann_Wendland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann Wendland est un horticulteur et un botaniste allemand, né en 1825 à Herrenhausen — devenu aujourd’hui un quartier de Hanovre — et mort en 1903.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il appartient à la troisième génération d’une famille de jardiniers de la cour des Hanovre. Il apprend le jardinage au jardin botanique de Göttingen et aux jardins botaniques royaux de Kew, à Londres. Il voyage en Amérique centrale en 1856-1857. À la mort de son père, en 1870, il succède à celui-ci à la tête des Jardins royaux.
 Hermann Wendland est un spécialiste des palmiers et de leur culture. Il est l’auteur de 130 taxons et a introduit de nombreuses espèces tropicales dans les serres européennes. De très nombreuses espèces de palmiers lui ont été dédiées.
@@ -544,28 +558,64 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Genre de palmier d'Amérique du Sud
 Wendlandiella Dammer (de) 1905
 Espèces
-(Araceae) Acontias wendlandii Schott[1]
-(Araceae) Colocasia wendlandii Engl. ex Hook.f.[2]
-(Araceae) Xanthosoma wendlandii (Schott) Standl.[3]
-(Arecaceae) Chamaedorea wendlandii H.Wendl.[4]
-(Arecaceae) Areca wendlandiana Scheff. ex H.Wendl.[5]
-(Arecaceae) Bactris wendlandiana Burret[6]
-(Arecaceae) Eremospatha wendlandiana Dammer (de) ex Becc.[7]
-(Arecaceae) Exorrhiza (d) wendlandiana Becc.[8]
-(Arecaceae) Hydriastele wendlandiana (Baill.) H.Wendl. &amp; Drude[9]
-(Arecaceae) Hyphaene wendlandii Dammer (de)[10]
-(Arecaceae) Nenga wendlandiana Scheff.[11]
-(Arecaceae) Raphia wendlandii Becc.[12]
-(Arecaceae) Stephanostachys (d) wendlandiana Oerst.[13]
-(Asteraceae) Ageratum wendlandii Hort. ex Vilm.[14]
-(Asteraceae) Alomia (en) wendlandii B.L.Rob.[15]
-Quelques publications
-Gustav Mann, Hermann Wendland. 1864. On the palms of western tropical Africa. Volume 24, Part. 3 de Transactions, Linnean Society of London. Editor Linnean Society, 19 pp.
+(Araceae) Acontias wendlandii Schott
+(Araceae) Colocasia wendlandii Engl. ex Hook.f.
+(Araceae) Xanthosoma wendlandii (Schott) Standl.
+(Arecaceae) Chamaedorea wendlandii H.Wendl.
+(Arecaceae) Areca wendlandiana Scheff. ex H.Wendl.
+(Arecaceae) Bactris wendlandiana Burret
+(Arecaceae) Eremospatha wendlandiana Dammer (de) ex Becc.
+(Arecaceae) Exorrhiza (d) wendlandiana Becc.
+(Arecaceae) Hydriastele wendlandiana (Baill.) H.Wendl. &amp; Drude
+(Arecaceae) Hyphaene wendlandii Dammer (de)
+(Arecaceae) Nenga wendlandiana Scheff.
+(Arecaceae) Raphia wendlandii Becc.
+(Arecaceae) Stephanostachys (d) wendlandiana Oerst.
+(Asteraceae) Ageratum wendlandii Hort. ex Vilm.
+(Asteraceae) Alomia (en) wendlandii B.L.Rob.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hermann_Wendland</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hermann_Wendland</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gustav Mann, Hermann Wendland. 1864. On the palms of western tropical Africa. Volume 24, Part. 3 de Transactions, Linnean Society of London. Editor Linnean Society, 19 pp.
 Index palmarum, cyclanthearum, pandanearum, cycadearum, quae in hortis europaeis coluntur. Hannover, editor Hahn, 68 pp. 1854 Lecture en ligne
 Die Königlichen Gärten zu Herrenhausen bei Hannover. Hannover, 90 p. 1852. Réédité par éd. Kessinger, LLC, 100 pp. 2010  (ISBN 1161107703)</t>
         </is>
